--- a/raw_data/20200818_saline/20200818_Sensor0_Test_28.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_28.xlsx
@@ -1,1172 +1,1588 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64945FDB-2477-4372-B682-98C9E8EB77B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>24302.867462</v>
+        <v>24302.867461999998</v>
       </c>
       <c r="B2" s="1">
-        <v>6.750797</v>
+        <v>6.7507970000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>903.744000</v>
+        <v>903.74400000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.996000</v>
+        <v>-196.99600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>24313.589013</v>
+        <v>24313.589013000001</v>
       </c>
       <c r="G2" s="1">
-        <v>6.753775</v>
+        <v>6.7537750000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>920.832000</v>
+        <v>920.83199999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.799000</v>
+        <v>-166.79900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>24324.056552</v>
+        <v>24324.056551999998</v>
       </c>
       <c r="L2" s="1">
-        <v>6.756682</v>
+        <v>6.7566819999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>942.745000</v>
+        <v>942.745</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.462000</v>
+        <v>-119.462</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>24334.858922</v>
+        <v>24334.858921999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.759683</v>
+        <v>6.7596829999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>949.090000</v>
+        <v>949.09</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.688000</v>
+        <v>-103.688</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>24345.445035</v>
+        <v>24345.445035000001</v>
       </c>
       <c r="V2" s="1">
-        <v>6.762624</v>
+        <v>6.7626239999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>955.457000</v>
+        <v>955.45699999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.823100</v>
+        <v>-89.823099999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>24355.859533</v>
+        <v>24355.859532999999</v>
       </c>
       <c r="AA2" s="1">
         <v>6.765517</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.490000</v>
+        <v>962.49</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.162700</v>
+        <v>-80.162700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>24366.398527</v>
+        <v>24366.398527000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.768444</v>
+        <v>6.7684439999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.359000</v>
+        <v>967.35900000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.678700</v>
+        <v>-79.678700000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>24376.850721</v>
+        <v>24376.850720999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.771347</v>
+        <v>6.7713469999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.216000</v>
+        <v>975.21600000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.296500</v>
+        <v>-87.296499999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>24387.758739</v>
+        <v>24387.758739000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.774377</v>
+        <v>6.7743770000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.331000</v>
+        <v>984.33100000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>24398.467366</v>
+        <v>24398.467366000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.777352</v>
+        <v>6.7773519999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.592000</v>
+        <v>995.59199999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.458000</v>
+        <v>-123.458</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>24409.291062</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.780359</v>
+        <v>6.7803589999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.103000</v>
+        <v>-142.10300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>24419.823608</v>
+        <v>24419.823607999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.783284</v>
+        <v>6.7832840000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.070000</v>
+        <v>1050.07</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.521000</v>
+        <v>-226.52099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>24430.492091</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.786248</v>
+        <v>6.7862479999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.115000</v>
+        <v>-362.11500000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>24441.566731</v>
+        <v>24441.566730999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.789324</v>
+        <v>6.7893239999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1259.900000</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-571.611000</v>
+        <v>-571.61099999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>24452.205423</v>
+        <v>24452.205422999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.792279</v>
+        <v>6.7922789999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1407.100000</v>
+        <v>1407.1</v>
       </c>
       <c r="BV2" s="1">
-        <v>-795.552000</v>
+        <v>-795.55200000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>24462.819820</v>
+        <v>24462.819820000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.795228</v>
+        <v>6.7952279999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1567.900000</v>
+        <v>1567.9</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1028.790000</v>
+        <v>-1028.79</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>24473.473377</v>
+        <v>24473.473376999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.798187</v>
+        <v>6.7981870000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>1975.060000</v>
+        <v>1975.06</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1573.170000</v>
+        <v>-1573.17</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>24303.232050</v>
+        <v>24303.232049999999</v>
       </c>
       <c r="B3" s="1">
-        <v>6.750898</v>
+        <v>6.7508980000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>903.898000</v>
+        <v>903.89800000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.036000</v>
+        <v>-197.036</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>24314.314628</v>
       </c>
       <c r="G3" s="1">
-        <v>6.753976</v>
+        <v>6.7539759999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>920.693000</v>
+        <v>920.69299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.947000</v>
+        <v>-166.947</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>24324.778262</v>
       </c>
       <c r="L3" s="1">
-        <v>6.756883</v>
+        <v>6.7568830000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>942.501000</v>
+        <v>942.50099999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.139000</v>
+        <v>-119.139</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>24335.209097</v>
+        <v>24335.209096999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.759780</v>
+        <v>6.7597800000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>949.099000</v>
+        <v>949.09900000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.670000</v>
+        <v>-103.67</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>24345.795706</v>
+        <v>24345.795706000001</v>
       </c>
       <c r="V3" s="1">
         <v>6.762721</v>
       </c>
       <c r="W3" s="1">
-        <v>955.434000</v>
+        <v>955.43399999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.739000</v>
+        <v>-89.739000000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>24356.217149</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.765616</v>
+        <v>6.7656159999999996</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.460000</v>
+        <v>962.46</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.146500</v>
+        <v>-80.146500000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>24367.085022</v>
+        <v>24367.085021999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.768635</v>
+        <v>6.7686349999999997</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.326000</v>
+        <v>967.32600000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.677200</v>
+        <v>-79.677199999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>24377.544128</v>
+        <v>24377.544128000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.771540</v>
+        <v>6.7715399999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.194000</v>
+        <v>975.19399999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.289300</v>
+        <v>-87.289299999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>24388.183812</v>
+        <v>24388.183811999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.774496</v>
+        <v>6.7744960000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.313000</v>
+        <v>984.31299999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.083000</v>
+        <v>-102.083</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>24398.849780</v>
+        <v>24398.84978</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.777458</v>
+        <v>6.7774580000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.580000</v>
+        <v>995.58</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.467000</v>
+        <v>-123.467</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>24409.653669</v>
+        <v>24409.653668999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.780459</v>
+        <v>6.7804589999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.106000</v>
+        <v>-142.10599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>24420.223392</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.783395</v>
+        <v>6.7833949999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.070000</v>
+        <v>1050.07</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.511000</v>
+        <v>-226.511</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>24430.883935</v>
+        <v>24430.883935000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.786357</v>
+        <v>6.7863569999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.154000</v>
+        <v>-362.154</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>24441.982379</v>
+        <v>24441.982379000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.789440</v>
+        <v>6.7894399999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1259.930000</v>
+        <v>1259.93</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-571.660000</v>
+        <v>-571.66</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>24452.356702</v>
+        <v>24452.356702000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.792321</v>
+        <v>6.7923210000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1407.070000</v>
+        <v>1407.07</v>
       </c>
       <c r="BV3" s="1">
-        <v>-795.643000</v>
+        <v>-795.64300000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>24462.991423</v>
+        <v>24462.991422999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.795275</v>
+        <v>6.7952750000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1567.950000</v>
+        <v>1567.95</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>24474.033393</v>
+        <v>24474.033393000002</v>
       </c>
       <c r="CD3" s="1">
         <v>6.798343</v>
       </c>
       <c r="CE3" s="1">
-        <v>1974.690000</v>
+        <v>1974.69</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1575.200000</v>
+        <v>-1575.2</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>24303.913521</v>
+        <v>24303.913520999999</v>
       </c>
       <c r="B4" s="1">
-        <v>6.751087</v>
+        <v>6.7510870000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>903.907000</v>
+        <v>903.90700000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.027000</v>
+        <v>-197.02699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>24314.657396</v>
+        <v>24314.657395999999</v>
       </c>
       <c r="G4" s="1">
-        <v>6.754071</v>
+        <v>6.7540709999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>920.673000</v>
+        <v>920.673</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.701000</v>
+        <v>-166.70099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>24325.125925</v>
       </c>
       <c r="L4" s="1">
-        <v>6.756979</v>
+        <v>6.7569790000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>942.543000</v>
+        <v>942.54300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.125000</v>
+        <v>-119.125</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>24335.558809</v>
+        <v>24335.558808999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.759877</v>
+        <v>6.7598770000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>949.116000</v>
+        <v>949.11599999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.671000</v>
+        <v>-103.67100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>24346.442517</v>
+        <v>24346.442516999999</v>
       </c>
       <c r="V4" s="1">
-        <v>6.762901</v>
+        <v>6.7629010000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>955.470000</v>
+        <v>955.47</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.781900</v>
+        <v>-89.781899999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>24356.870907</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.765797</v>
+        <v>6.7657970000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.492000</v>
+        <v>962.49199999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.128700</v>
+        <v>-80.128699999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>24367.461462</v>
+        <v>24367.461461999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.768739</v>
+        <v>6.7687390000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.319000</v>
+        <v>967.31899999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.693700</v>
+        <v>-79.693700000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>24377.926049</v>
+        <v>24377.926049000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.771646</v>
+        <v>6.7716459999999996</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.209000</v>
+        <v>975.20899999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.316800</v>
+        <v>-87.316800000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>24388.545891</v>
+        <v>24388.545891000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.774596</v>
+        <v>6.7745959999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.325000</v>
+        <v>984.32500000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>24399.215827</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.777560</v>
+        <v>6.7775600000000003</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.606000</v>
+        <v>995.60599999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.482000</v>
+        <v>-123.482</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>24410.014266</v>
+        <v>24410.014265999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.780560</v>
+        <v>6.7805600000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.098000</v>
+        <v>-142.09800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>24420.644487</v>
+        <v>24420.644487000001</v>
       </c>
       <c r="BE4" s="1">
         <v>6.783512</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.090000</v>
+        <v>1050.0899999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.543000</v>
+        <v>-226.54300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>24431.304505</v>
@@ -1175,105 +1591,105 @@
         <v>6.786473</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.050000</v>
+        <v>1129.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.141000</v>
+        <v>-362.14100000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>24442.403980</v>
+        <v>24442.403979999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.789557</v>
+        <v>6.7895570000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1259.900000</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-571.650000</v>
+        <v>-571.65</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>24452.767886</v>
+        <v>24452.767886000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.792436</v>
+        <v>6.7924360000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1407.130000</v>
+        <v>1407.13</v>
       </c>
       <c r="BV4" s="1">
-        <v>-795.714000</v>
+        <v>-795.71400000000006</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>24463.442319</v>
+        <v>24463.442319000002</v>
       </c>
       <c r="BY4" s="1">
         <v>6.795401</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1568.020000</v>
+        <v>1568.02</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1028.750000</v>
+        <v>-1028.75</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>24474.571056</v>
+        <v>24474.571056000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.798492</v>
+        <v>6.7984920000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>1975.970000</v>
+        <v>1975.97</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1574.090000</v>
+        <v>-1574.09</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>24304.257249</v>
+        <v>24304.257248999998</v>
       </c>
       <c r="B5" s="1">
-        <v>6.751183</v>
+        <v>6.7511830000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>903.791000</v>
+        <v>903.79100000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.024000</v>
+        <v>-197.024</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>24315.003075</v>
+        <v>24315.003075000001</v>
       </c>
       <c r="G5" s="1">
-        <v>6.754168</v>
+        <v>6.7541679999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>920.910000</v>
+        <v>920.91</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.802000</v>
+        <v>-166.80199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>24325.778165</v>
@@ -1282,28 +1698,28 @@
         <v>6.757161</v>
       </c>
       <c r="M5" s="1">
-        <v>942.630000</v>
+        <v>942.63</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.279000</v>
+        <v>-119.279</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>24336.211016</v>
+        <v>24336.211016000001</v>
       </c>
       <c r="Q5" s="1">
         <v>6.760059</v>
       </c>
       <c r="R5" s="1">
-        <v>949.154000</v>
+        <v>949.154</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.699000</v>
+        <v>-103.699</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>24346.825407</v>
@@ -1312,572 +1728,572 @@
         <v>6.763007</v>
       </c>
       <c r="W5" s="1">
-        <v>955.402000</v>
+        <v>955.40200000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.821200</v>
+        <v>-89.821200000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>24357.264699</v>
+        <v>24357.264698999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.765907</v>
+        <v>6.7659070000000003</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.457000</v>
+        <v>962.45699999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.044600</v>
+        <v>-80.044600000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>24367.804686</v>
+        <v>24367.804685999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.768835</v>
+        <v>6.7688350000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.312000</v>
+        <v>967.31200000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.676500</v>
+        <v>-79.676500000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>24378.272287</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.771742</v>
+        <v>6.7717419999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.199000</v>
+        <v>975.19899999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.303900</v>
+        <v>-87.303899999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>24388.906482</v>
+        <v>24388.906481999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.774696</v>
+        <v>6.7746959999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.343000</v>
+        <v>984.34299999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.083000</v>
+        <v>-102.083</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>24399.638419</v>
+        <v>24399.638418999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.777677</v>
+        <v>6.7776769999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.591000</v>
+        <v>995.59100000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.466000</v>
+        <v>-123.46599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>24410.435830</v>
+        <v>24410.435829999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.780677</v>
+        <v>6.7806769999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.091000</v>
+        <v>-142.09100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>24420.945559</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.783596</v>
+        <v>6.7835960000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1050.070000</v>
+        <v>1050.07</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.535000</v>
+        <v>-226.535</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>24431.633390</v>
+        <v>24431.633389999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.786565</v>
+        <v>6.7865650000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.156000</v>
+        <v>-362.15600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>24442.800282</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.789667</v>
+        <v>6.7896669999999997</v>
       </c>
       <c r="BP5" s="1">
-        <v>1259.900000</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-571.648000</v>
+        <v>-571.64800000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>24453.204365</v>
+        <v>24453.204365000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.792557</v>
+        <v>6.7925570000000004</v>
       </c>
       <c r="BU5" s="1">
-        <v>1407.020000</v>
+        <v>1407.02</v>
       </c>
       <c r="BV5" s="1">
-        <v>-795.666000</v>
+        <v>-795.66600000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>24463.899134</v>
+        <v>24463.899133999999</v>
       </c>
       <c r="BY5" s="1">
         <v>6.795528</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1568.060000</v>
+        <v>1568.06</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1028.850000</v>
+        <v>-1028.8499999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>24475.111664</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.798642</v>
+        <v>6.7986420000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1974.070000</v>
+        <v>1974.07</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1574.060000</v>
+        <v>-1574.06</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>24304.590065</v>
       </c>
       <c r="B6" s="1">
-        <v>6.751275</v>
+        <v>6.7512749999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>903.632000</v>
+        <v>903.63199999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.943000</v>
+        <v>-196.94300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>24315.654322</v>
+        <v>24315.654321999999</v>
       </c>
       <c r="G6" s="1">
-        <v>6.754348</v>
+        <v>6.7543480000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>920.791000</v>
+        <v>920.79100000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.450000</v>
+        <v>-166.45</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>24326.165053</v>
+        <v>24326.165053000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.757268</v>
+        <v>6.7572679999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>942.654000</v>
+        <v>942.654</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.103000</v>
+        <v>-119.10299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>24336.602390</v>
+        <v>24336.60239</v>
       </c>
       <c r="Q6" s="1">
         <v>6.760167</v>
       </c>
       <c r="R6" s="1">
-        <v>949.133000</v>
+        <v>949.13300000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.736000</v>
+        <v>-103.736</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>24347.167640</v>
+        <v>24347.16764</v>
       </c>
       <c r="V6" s="1">
-        <v>6.763102</v>
+        <v>6.7631019999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.480000</v>
+        <v>955.48</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.827100</v>
+        <v>-89.827100000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>24357.610410</v>
+        <v>24357.610410000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.766003</v>
+        <v>6.7660030000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.408000</v>
+        <v>962.40800000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.165400</v>
+        <v>-80.165400000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>24368.154364</v>
+        <v>24368.154364000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.768932</v>
+        <v>6.7689320000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.313000</v>
+        <v>967.31299999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.696200</v>
+        <v>-79.696200000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>24378.623460</v>
+        <v>24378.623459999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.771840</v>
+        <v>6.7718400000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.198000</v>
+        <v>975.19799999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.300000</v>
+        <v>-87.3</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>24389.327585</v>
+        <v>24389.327584999999</v>
       </c>
       <c r="AP6" s="1">
         <v>6.774813</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.318000</v>
+        <v>984.31799999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.085000</v>
+        <v>-102.08499999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>24399.943458</v>
+        <v>24399.943458000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.777762</v>
+        <v>6.7777620000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.613000</v>
+        <v>995.61300000000006</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.461000</v>
+        <v>-123.461</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>24410.729956</v>
+        <v>24410.729955999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.780758</v>
+        <v>6.7807579999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.087000</v>
+        <v>-142.08699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>24421.305158</v>
+        <v>24421.305157999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.783696</v>
+        <v>6.7836959999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1050.090000</v>
+        <v>1050.0899999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.546000</v>
+        <v>-226.54599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>24432.008328</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.786669</v>
+        <v>6.7866689999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.145000</v>
+        <v>-362.14499999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>24443.222187</v>
+        <v>24443.222186999999</v>
       </c>
       <c r="BO6" s="1">
         <v>6.789784</v>
       </c>
       <c r="BP6" s="1">
-        <v>1259.860000</v>
+        <v>1259.8599999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-571.679000</v>
+        <v>-571.67899999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>24453.631451</v>
+        <v>24453.631451000001</v>
       </c>
       <c r="BT6" s="1">
         <v>6.792675</v>
       </c>
       <c r="BU6" s="1">
-        <v>1407.040000</v>
+        <v>1407.04</v>
       </c>
       <c r="BV6" s="1">
-        <v>-795.737000</v>
+        <v>-795.73699999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>24464.349965</v>
+        <v>24464.349965000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.795653</v>
+        <v>6.7956529999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1567.980000</v>
+        <v>1567.98</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1028.840000</v>
+        <v>-1028.8399999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>24475.655278</v>
+        <v>24475.655277999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.798793</v>
+        <v>6.7987929999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1975.760000</v>
+        <v>1975.76</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1574.900000</v>
+        <v>-1574.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>24305.249745</v>
+        <v>24305.249745000001</v>
       </c>
       <c r="B7" s="1">
-        <v>6.751458</v>
+        <v>6.7514580000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>903.639000</v>
+        <v>903.63900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.048000</v>
+        <v>-197.048</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>24316.038225</v>
       </c>
       <c r="G7" s="1">
-        <v>6.754455</v>
+        <v>6.7544550000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>920.808000</v>
+        <v>920.80799999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.179000</v>
+        <v>-166.179</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>24326.510787</v>
+        <v>24326.510786999999</v>
       </c>
       <c r="L7" s="1">
-        <v>6.757364</v>
+        <v>6.7573639999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>942.644000</v>
+        <v>942.64400000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.078000</v>
+        <v>-119.078</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>24336.953557</v>
+        <v>24336.953557000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.760265</v>
+        <v>6.7602650000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>949.085000</v>
+        <v>949.08500000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.715000</v>
+        <v>-103.715</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>24347.514840</v>
+        <v>24347.51484</v>
       </c>
       <c r="V7" s="1">
-        <v>6.763199</v>
+        <v>6.7631990000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>955.448000</v>
+        <v>955.44799999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.803000</v>
+        <v>-89.802999999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>24357.960617</v>
+        <v>24357.960617000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.766100</v>
+        <v>6.7660999999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.465000</v>
+        <v>962.46500000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.178500</v>
+        <v>-80.1785</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>24368.579964</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.769050</v>
+        <v>6.76905</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.339000</v>
+        <v>967.33900000000006</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.685000</v>
+        <v>-79.685000000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>24379.085198</v>
+        <v>24379.085198000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.771968</v>
+        <v>6.7719680000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.188000</v>
+        <v>975.18799999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.289300</v>
+        <v>-87.289299999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>24389.625184</v>
@@ -1886,497 +2302,497 @@
         <v>6.774896</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.307000</v>
+        <v>984.30700000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.090000</v>
+        <v>-102.09</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>24400.310002</v>
+        <v>24400.310001999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.777864</v>
+        <v>6.7778640000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.629000</v>
+        <v>995.62900000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.472000</v>
+        <v>-123.47199999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>24411.088597</v>
+        <v>24411.088597000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.780858</v>
+        <v>6.7808580000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.090000</v>
+        <v>-142.09</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>24421.670215</v>
+        <v>24421.670214999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.783797</v>
+        <v>6.7837969999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.080000</v>
+        <v>1050.08</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.562000</v>
+        <v>-226.56200000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>24432.411079</v>
+        <v>24432.411079000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.786781</v>
+        <v>6.7867810000000004</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.167000</v>
+        <v>-362.16699999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>24443.637064</v>
+        <v>24443.637063999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.789899</v>
+        <v>6.7898990000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1259.880000</v>
+        <v>1259.8800000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-571.671000</v>
+        <v>-571.67100000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>24454.044620</v>
+        <v>24454.044620000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.792790</v>
+        <v>6.7927900000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1406.940000</v>
+        <v>1406.94</v>
       </c>
       <c r="BV7" s="1">
-        <v>-795.752000</v>
+        <v>-795.75199999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>24464.769581</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.795769</v>
+        <v>6.7957689999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1568.050000</v>
+        <v>1568.05</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1028.920000</v>
+        <v>-1028.92</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>24476.190462</v>
+        <v>24476.190461999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.798942</v>
+        <v>6.7989420000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1975.030000</v>
+        <v>1975.03</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1573.520000</v>
+        <v>-1573.52</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>24305.628688</v>
+        <v>24305.628688000001</v>
       </c>
       <c r="B8" s="1">
-        <v>6.751564</v>
+        <v>6.7515640000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>903.965000</v>
+        <v>903.96500000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.803000</v>
+        <v>-196.803</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>24316.382449</v>
+        <v>24316.382449000001</v>
       </c>
       <c r="G8" s="1">
-        <v>6.754551</v>
+        <v>6.7545510000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>920.626000</v>
+        <v>920.62599999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.659000</v>
+        <v>-166.65899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>24326.857956</v>
       </c>
       <c r="L8" s="1">
-        <v>6.757461</v>
+        <v>6.7574610000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>942.707000</v>
+        <v>942.70699999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.084000</v>
+        <v>-119.084</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>24337.301749</v>
+        <v>24337.301748999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.760362</v>
+        <v>6.7603619999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>949.111000</v>
+        <v>949.11099999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.667000</v>
+        <v>-103.667</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>24347.929496</v>
+        <v>24347.929496000001</v>
       </c>
       <c r="V8" s="1">
-        <v>6.763314</v>
+        <v>6.7633140000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>955.470000</v>
+        <v>955.47</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.837600</v>
+        <v>-89.837599999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>24358.382681</v>
+        <v>24358.382680999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.766217</v>
+        <v>6.7662170000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.551000</v>
+        <v>962.55100000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.125800</v>
+        <v>-80.125799999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>24368.857195</v>
+        <v>24368.857195000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.769127</v>
+        <v>6.7691270000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.339000</v>
+        <v>967.33900000000006</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.676100</v>
+        <v>-79.676100000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>24379.334686</v>
+        <v>24379.334685999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.772037</v>
+        <v>6.7720370000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.208000</v>
+        <v>975.20799999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.311500</v>
+        <v>-87.311499999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>24389.984784</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.774996</v>
+        <v>6.7749959999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.310000</v>
+        <v>984.31</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>24400.675059</v>
+        <v>24400.675059000001</v>
       </c>
       <c r="AU8" s="1">
         <v>6.777965</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.602000</v>
+        <v>995.60199999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.481000</v>
+        <v>-123.48099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>24411.449651</v>
+        <v>24411.449650999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>6.780958</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.101000</v>
+        <v>-142.101</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>24422.389909</v>
+        <v>24422.389909000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.783997</v>
+        <v>6.7839970000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.070000</v>
+        <v>1050.07</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.569000</v>
+        <v>-226.56899999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>24433.162023</v>
+        <v>24433.162023000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.786989</v>
+        <v>6.7869890000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.156000</v>
+        <v>-362.15600000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>24444.038792</v>
+        <v>24444.038791999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.790011</v>
+        <v>6.7900109999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1259.890000</v>
+        <v>1259.8900000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-571.667000</v>
+        <v>-571.66700000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>24454.476106</v>
+        <v>24454.476105999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.792910</v>
+        <v>6.79291</v>
       </c>
       <c r="BU8" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="BV8" s="1">
-        <v>-795.843000</v>
+        <v>-795.84299999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>24465.192205</v>
+        <v>24465.192204999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.795887</v>
+        <v>6.7958869999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1567.970000</v>
+        <v>1567.97</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1028.960000</v>
+        <v>-1028.96</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>24477.038620</v>
+        <v>24477.038619999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.799177</v>
+        <v>6.7991770000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1975.770000</v>
+        <v>1975.77</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1574.630000</v>
+        <v>-1574.63</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>24305.969965</v>
       </c>
       <c r="B9" s="1">
-        <v>6.751658</v>
+        <v>6.7516579999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>903.947000</v>
+        <v>903.947</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.964000</v>
+        <v>-196.964</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>24316.725185</v>
+        <v>24316.725184999999</v>
       </c>
       <c r="G9" s="1">
-        <v>6.754646</v>
+        <v>6.7546460000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>921.160000</v>
+        <v>921.16</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.989000</v>
+        <v>-166.989</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>24327.274132</v>
+        <v>24327.274131999999</v>
       </c>
       <c r="L9" s="1">
-        <v>6.757576</v>
+        <v>6.7575760000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>942.646000</v>
+        <v>942.64599999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.024000</v>
+        <v>-119.024</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>24337.722820</v>
+        <v>24337.722819999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.760479</v>
+        <v>6.7604790000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>949.115000</v>
+        <v>949.11500000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.667000</v>
+        <v>-103.667</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>24348.209735</v>
       </c>
       <c r="V9" s="1">
-        <v>6.763392</v>
+        <v>6.7633919999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>955.418000</v>
+        <v>955.41800000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.863000</v>
+        <v>-89.863</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>24358.661930</v>
+        <v>24358.661929999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.766295</v>
+        <v>6.7662950000000004</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.317000</v>
+        <v>962.31700000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.201400</v>
+        <v>-80.201400000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>24369.200930</v>
+        <v>24369.200929999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.769222</v>
+        <v>6.7692220000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.378000</v>
+        <v>967.37800000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.694700</v>
+        <v>-79.694699999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>24379.695279</v>
@@ -2385,315 +2801,315 @@
         <v>6.772138</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.211000</v>
+        <v>975.21100000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.280600</v>
+        <v>-87.280600000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>24390.348352</v>
+        <v>24390.348352000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.775097</v>
+        <v>6.7750969999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.319000</v>
+        <v>984.31899999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.068000</v>
+        <v>-102.068</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>24401.411120</v>
+        <v>24401.411120000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.778170</v>
+        <v>6.7781700000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.619000</v>
+        <v>995.61900000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.492000</v>
+        <v>-123.492</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>24412.163923</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.781157</v>
+        <v>6.7811570000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.113000</v>
+        <v>-142.113</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>24422.777781</v>
+        <v>24422.777781000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.784105</v>
+        <v>6.7841050000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1050.080000</v>
+        <v>1050.08</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.557000</v>
+        <v>-226.55699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>24433.564775</v>
+        <v>24433.564774999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.787101</v>
+        <v>6.7871009999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.050000</v>
+        <v>1129.05</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.162000</v>
+        <v>-362.16199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>24444.437577</v>
+        <v>24444.437577000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.790122</v>
+        <v>6.7901220000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1259.900000</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-571.665000</v>
+        <v>-571.66499999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>24455.215674</v>
+        <v>24455.215673999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.793115</v>
+        <v>6.7931150000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1406.890000</v>
+        <v>1406.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-795.766000</v>
+        <v>-795.76599999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>24465.927740</v>
+        <v>24465.927739999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.796091</v>
+        <v>6.7960909999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1567.940000</v>
+        <v>1567.94</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1028.880000</v>
+        <v>-1028.8800000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>24477.270749</v>
+        <v>24477.270748999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.799242</v>
+        <v>6.7992419999999996</v>
       </c>
       <c r="CE9" s="1">
-        <v>1975.930000</v>
+        <v>1975.93</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1574.740000</v>
+        <v>-1574.74</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>24306.312175</v>
+        <v>24306.312174999999</v>
       </c>
       <c r="B10" s="1">
-        <v>6.751753</v>
+        <v>6.7517529999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>903.913000</v>
+        <v>903.91300000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.948000</v>
+        <v>-196.94800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>24317.141824</v>
+        <v>24317.141823999998</v>
       </c>
       <c r="G10" s="1">
-        <v>6.754762</v>
+        <v>6.7547620000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>920.369000</v>
+        <v>920.36900000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.403000</v>
+        <v>-166.40299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>24327.549184</v>
       </c>
       <c r="L10" s="1">
-        <v>6.757653</v>
+        <v>6.7576530000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>942.848000</v>
+        <v>942.84799999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.941000</v>
+        <v>-118.941</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>24338.013977</v>
+        <v>24338.013976999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.760559</v>
+        <v>6.7605589999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>949.120000</v>
+        <v>949.12</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.706000</v>
+        <v>-103.706</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>24348.552967</v>
       </c>
       <c r="V10" s="1">
-        <v>6.763487</v>
+        <v>6.7634869999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>955.451000</v>
+        <v>955.45100000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.844400</v>
+        <v>-89.844399999999993</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>24359.011641</v>
+        <v>24359.011641000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.766392</v>
+        <v>6.7663919999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.323000</v>
+        <v>962.32299999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.146300</v>
+        <v>-80.146299999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>24369.545518</v>
+        <v>24369.545517999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.769318</v>
+        <v>6.7693180000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.329000</v>
+        <v>967.32899999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.696200</v>
+        <v>-79.696200000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>24380.393644</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.772332</v>
+        <v>6.7723319999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.218000</v>
+        <v>975.21799999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.285200</v>
+        <v>-87.285200000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>24391.073999</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.775298</v>
+        <v>6.7752980000000003</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.316000</v>
+        <v>984.31600000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.080000</v>
+        <v>-102.08</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>24401.788576</v>
+        <v>24401.788575999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.778275</v>
+        <v>6.7782749999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.614000</v>
+        <v>995.61400000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.474000</v>
+        <v>-123.474</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>24412.522994</v>
+        <v>24412.522993999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>6.781256</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.105000</v>
+        <v>-142.10499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>24423.137412</v>
@@ -2702,605 +3118,605 @@
         <v>6.784205</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.090000</v>
+        <v>1050.0899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.570000</v>
+        <v>-226.57</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>24434.246277</v>
+        <v>24434.246276999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.787291</v>
+        <v>6.7872909999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.132000</v>
+        <v>-362.13200000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>24445.163719</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.790323</v>
+        <v>6.7903229999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1259.900000</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-571.668000</v>
+        <v>-571.66800000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>24455.348073</v>
+        <v>24455.348073000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.793152</v>
+        <v>6.7931520000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="BV10" s="1">
-        <v>-795.827000</v>
+        <v>-795.827</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>24466.037851</v>
+        <v>24466.037851000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.796122</v>
+        <v>6.7961220000000004</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1568.020000</v>
+        <v>1568.02</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1028.900000</v>
+        <v>-1028.9000000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>24477.789597</v>
+        <v>24477.789596999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.799386</v>
+        <v>6.7993860000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1975.520000</v>
+        <v>1975.52</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1573.240000</v>
+        <v>-1573.24</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>24306.992718</v>
+        <v>24306.992718000001</v>
       </c>
       <c r="B11" s="1">
-        <v>6.751942</v>
+        <v>6.7519419999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>903.765000</v>
+        <v>903.76499999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.011000</v>
+        <v>-197.011</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>24317.433968</v>
+        <v>24317.433968000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6.754843</v>
+        <v>6.7548430000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>920.772000</v>
+        <v>920.77200000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.617000</v>
+        <v>-166.61699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>24327.894130</v>
+        <v>24327.894130000001</v>
       </c>
       <c r="L11" s="1">
-        <v>6.757748</v>
+        <v>6.7577480000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>942.540000</v>
+        <v>942.54</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.126000</v>
+        <v>-119.126</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>24338.362660</v>
+        <v>24338.362659999999</v>
       </c>
       <c r="Q11" s="1">
         <v>6.760656</v>
       </c>
       <c r="R11" s="1">
-        <v>949.129000</v>
+        <v>949.12900000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.700000</v>
+        <v>-103.7</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>24348.895734</v>
+        <v>24348.895734000002</v>
       </c>
       <c r="V11" s="1">
-        <v>6.763582</v>
+        <v>6.7635820000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>955.414000</v>
+        <v>955.41399999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.831400</v>
+        <v>-89.831400000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>24359.360297</v>
+        <v>24359.360296999999</v>
       </c>
       <c r="AA11" s="1">
         <v>6.766489</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.477000</v>
+        <v>962.47699999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.122800</v>
+        <v>-80.122799999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>24370.231609</v>
+        <v>24370.231608999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.769509</v>
+        <v>6.7695090000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.309000</v>
+        <v>967.30899999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.745500</v>
+        <v>-79.745500000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>24380.741836</v>
+        <v>24380.741836000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.772428</v>
+        <v>6.7724279999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.212000</v>
+        <v>975.21199999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.312100</v>
+        <v>-87.312100000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>24391.450957</v>
+        <v>24391.450957000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.775403</v>
+        <v>6.7754029999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.326000</v>
+        <v>984.32600000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.102000</v>
+        <v>-102.102</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>24402.159143</v>
+        <v>24402.159143000001</v>
       </c>
       <c r="AU11" s="1">
         <v>6.778378</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.607000</v>
+        <v>995.60699999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.460000</v>
+        <v>-123.46</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>24412.884081</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.781357</v>
+        <v>6.7813569999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.091000</v>
+        <v>-142.09100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>24423.803042</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.784390</v>
+        <v>6.7843900000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.090000</v>
+        <v>1050.0899999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.535000</v>
+        <v>-226.535</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>24434.690692</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.787414</v>
+        <v>6.7874140000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.162000</v>
+        <v>-362.16199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>24445.278790</v>
+        <v>24445.27879</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.790355</v>
+        <v>6.7903549999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1259.890000</v>
+        <v>1259.8900000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-571.699000</v>
+        <v>-571.69899999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>24455.761272</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.793267</v>
+        <v>6.7932670000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="BV11" s="1">
-        <v>-795.827000</v>
+        <v>-795.827</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>24466.468912</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.796241</v>
+        <v>6.7962410000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1568.020000</v>
+        <v>1568.02</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1029.050000</v>
+        <v>-1029.05</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>24478.304411</v>
+        <v>24478.304411000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.799529</v>
+        <v>6.7995289999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>1976.150000</v>
+        <v>1976.15</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1573.840000</v>
+        <v>-1573.84</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>24307.342365</v>
       </c>
       <c r="B12" s="1">
-        <v>6.752040</v>
+        <v>6.75204</v>
       </c>
       <c r="C12" s="1">
-        <v>903.896000</v>
+        <v>903.89599999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.049000</v>
+        <v>-197.04900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>24317.780206</v>
+        <v>24317.780205999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6.754939</v>
+        <v>6.7549390000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>921.014000</v>
+        <v>921.01400000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.395000</v>
+        <v>-166.39500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>24328.240305</v>
+        <v>24328.240304999999</v>
       </c>
       <c r="L12" s="1">
-        <v>6.757845</v>
+        <v>6.7578449999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>942.628000</v>
+        <v>942.62800000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.197000</v>
+        <v>-119.197</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>24338.709860</v>
+        <v>24338.709859999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.760753</v>
+        <v>6.7607530000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>949.112000</v>
+        <v>949.11199999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.741000</v>
+        <v>-103.741</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>24349.582166</v>
       </c>
       <c r="V12" s="1">
-        <v>6.763773</v>
+        <v>6.7637729999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>955.467000</v>
+        <v>955.46699999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.808100</v>
+        <v>-89.808099999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>24360.055191</v>
+        <v>24360.055190999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.766682</v>
+        <v>6.7666820000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.407000</v>
+        <v>962.40700000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.164600</v>
+        <v>-80.164599999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>24370.576331</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.769605</v>
+        <v>6.7696050000000003</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.352000</v>
+        <v>967.35199999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.728400</v>
+        <v>-79.728399999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>24381.090524</v>
+        <v>24381.090523999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.772525</v>
+        <v>6.7725249999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.214000</v>
+        <v>975.21400000000006</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.290700</v>
+        <v>-87.290700000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>24391.814062</v>
+        <v>24391.814062000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.775504</v>
+        <v>6.7755039999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.303000</v>
+        <v>984.303</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.105000</v>
+        <v>-102.105</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>24402.828686</v>
+        <v>24402.828686000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.778564</v>
+        <v>6.7785640000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.609000</v>
+        <v>995.60900000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.460000</v>
+        <v>-123.46</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>24413.554674</v>
+        <v>24413.554673999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.781543</v>
+        <v>6.7815430000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.104000</v>
+        <v>-142.10400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>24424.255890</v>
+        <v>24424.25589</v>
       </c>
       <c r="BE12" s="1">
         <v>6.784516</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.100000</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.532000</v>
+        <v>-226.53200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>24435.064710</v>
+        <v>24435.064709999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.787518</v>
+        <v>6.7875180000000004</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.151000</v>
+        <v>-362.15100000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>24445.677079</v>
+        <v>24445.677079000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.790466</v>
+        <v>6.7904660000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1259.900000</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-571.660000</v>
+        <v>-571.66</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>24456.189303</v>
+        <v>24456.189302999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.793386</v>
+        <v>6.7933859999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="BV12" s="1">
-        <v>-795.800000</v>
+        <v>-795.8</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>24466.890475</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.796358</v>
+        <v>6.7963579999999997</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1568.110000</v>
+        <v>1568.11</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>24478.860922</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.799684</v>
+        <v>6.7996840000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1975.910000</v>
+        <v>1975.91</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1574.750000</v>
+        <v>-1574.75</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>24307.686124</v>
       </c>
@@ -3308,450 +3724,450 @@
         <v>6.752135</v>
       </c>
       <c r="C13" s="1">
-        <v>903.795000</v>
+        <v>903.79499999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.019000</v>
+        <v>-197.01900000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>24318.124400</v>
+        <v>24318.124400000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6.755035</v>
+        <v>6.7550350000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>920.248000</v>
+        <v>920.24800000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.278000</v>
+        <v>-166.27799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>24328.928257</v>
       </c>
       <c r="L13" s="1">
-        <v>6.758036</v>
+        <v>6.7580359999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>942.552000</v>
+        <v>942.55200000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.139000</v>
+        <v>-119.139</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>24339.408226</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.760947</v>
+        <v>6.7609469999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>949.082000</v>
+        <v>949.08199999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.719000</v>
+        <v>-103.71899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>24349.926884</v>
       </c>
       <c r="V13" s="1">
-        <v>6.763869</v>
+        <v>6.7638689999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>955.425000</v>
+        <v>955.42499999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.821800</v>
+        <v>-89.821799999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>24360.403383</v>
+        <v>24360.403383000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.766779</v>
+        <v>6.7667789999999997</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.414000</v>
+        <v>962.41399999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.119300</v>
+        <v>-80.119299999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>24370.917613</v>
+        <v>24370.917613000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.769699</v>
+        <v>6.7696990000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.354000</v>
+        <v>967.35400000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.694100</v>
+        <v>-79.694100000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>24381.742267</v>
+        <v>24381.742267000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.772706</v>
+        <v>6.7727060000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.197000</v>
+        <v>975.197</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.287900</v>
+        <v>-87.287899999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>24392.478172</v>
+        <v>24392.478171999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.775688</v>
+        <v>6.7756879999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.312000</v>
+        <v>984.31200000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>24403.285006</v>
+        <v>24403.285005999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.778690</v>
+        <v>6.7786900000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.600000</v>
+        <v>995.6</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.457000</v>
+        <v>-123.45699999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>24413.985243</v>
+        <v>24413.985242999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>6.781663</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.140000</v>
+        <v>1005.14</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.111000</v>
+        <v>-142.11099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>24424.616946</v>
+        <v>24424.616945999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.784616</v>
+        <v>6.7846159999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.100000</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.533000</v>
+        <v>-226.53299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>24435.441140</v>
+        <v>24435.441139999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>6.787623</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.160000</v>
+        <v>-362.16</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>24446.097189</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.790583</v>
+        <v>6.7905829999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1259.870000</v>
+        <v>1259.8699999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-571.662000</v>
+        <v>-571.66200000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>24456.608407</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.793502</v>
+        <v>6.7935020000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1406.650000</v>
+        <v>1406.65</v>
       </c>
       <c r="BV13" s="1">
-        <v>-795.798000</v>
+        <v>-795.798</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>24467.361673</v>
+        <v>24467.361672999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.796489</v>
+        <v>6.7964890000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1567.910000</v>
+        <v>1567.91</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>24479.390651</v>
+        <v>24479.390651000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.799831</v>
+        <v>6.7998310000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1975.590000</v>
+        <v>1975.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1573.320000</v>
+        <v>-1573.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>24308.367637</v>
+        <v>24308.367636999999</v>
       </c>
       <c r="B14" s="1">
-        <v>6.752324</v>
+        <v>6.7523239999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>903.904000</v>
+        <v>903.904</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.200000</v>
+        <v>-197.2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>24318.814830</v>
+        <v>24318.814829999999</v>
       </c>
       <c r="G14" s="1">
-        <v>6.755226</v>
+        <v>6.7552260000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>920.968000</v>
+        <v>920.96799999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.816000</v>
+        <v>-166.816</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>24329.279920</v>
+        <v>24329.279920000001</v>
       </c>
       <c r="L14" s="1">
-        <v>6.758133</v>
+        <v>6.7581329999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>942.691000</v>
+        <v>942.69100000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.103000</v>
+        <v>-119.10299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>24339.757410</v>
+        <v>24339.757409999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.761044</v>
+        <v>6.7610440000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>949.113000</v>
+        <v>949.11300000000006</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.691000</v>
+        <v>-103.691</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>24350.269156</v>
+        <v>24350.269155999998</v>
       </c>
       <c r="V14" s="1">
-        <v>6.763964</v>
+        <v>6.7639639999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>955.485000</v>
+        <v>955.48500000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.849900</v>
+        <v>-89.849900000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>24360.753100</v>
+        <v>24360.753100000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.766876</v>
+        <v>6.7668759999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.505000</v>
+        <v>962.505</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.087200</v>
+        <v>-80.087199999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>24371.568856</v>
+        <v>24371.568856000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.769880</v>
+        <v>6.7698799999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.354000</v>
+        <v>967.35400000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.720500</v>
+        <v>-79.720500000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>24382.137578</v>
+        <v>24382.137578000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.772816</v>
+        <v>6.7728159999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.222000</v>
+        <v>975.22199999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.312300</v>
+        <v>-87.312299999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>24392.892351</v>
+        <v>24392.892350999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.775803</v>
+        <v>6.7758029999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.305000</v>
+        <v>984.30499999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>24403.648573</v>
+        <v>24403.648572999999</v>
       </c>
       <c r="AU14" s="1">
         <v>6.778791</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.617000</v>
+        <v>995.61699999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.457000</v>
+        <v>-123.45699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>24414.347306</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.781763</v>
+        <v>6.7817629999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.109000</v>
+        <v>-142.10900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>24424.977069</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.784716</v>
+        <v>6.7847160000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1050.080000</v>
+        <v>1050.08</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.551000</v>
+        <v>-226.55099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>24435.852819</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.787737</v>
+        <v>6.7877369999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.152000</v>
+        <v>-362.15199999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>24446.517829</v>
@@ -3760,90 +4176,90 @@
         <v>6.790699</v>
       </c>
       <c r="BP14" s="1">
-        <v>1259.870000</v>
+        <v>1259.8699999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-571.644000</v>
+        <v>-571.64400000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>24457.019095</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.793616</v>
+        <v>6.7936160000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1406.610000</v>
+        <v>1406.61</v>
       </c>
       <c r="BV14" s="1">
-        <v>-795.782000</v>
+        <v>-795.78200000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>24467.732682</v>
+        <v>24467.732682000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.796592</v>
+        <v>6.7965920000000004</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1567.950000</v>
+        <v>1567.95</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1028.830000</v>
+        <v>-1028.83</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>24479.908968</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.799975</v>
+        <v>6.7999749999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1973.990000</v>
+        <v>1973.99</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1573.770000</v>
+        <v>-1573.77</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>24308.717495</v>
+        <v>24308.717495000001</v>
       </c>
       <c r="B15" s="1">
-        <v>6.752422</v>
+        <v>6.7524220000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>903.690000</v>
+        <v>903.69</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.956000</v>
+        <v>-196.95599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>24319.160045</v>
+        <v>24319.160045000001</v>
       </c>
       <c r="G15" s="1">
-        <v>6.755322</v>
+        <v>6.7553219999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>920.257000</v>
+        <v>920.25699999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.153000</v>
+        <v>-167.15299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>24329.623679</v>
@@ -3852,527 +4268,527 @@
         <v>6.758229</v>
       </c>
       <c r="M15" s="1">
-        <v>942.675000</v>
+        <v>942.67499999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.997000</v>
+        <v>-118.997</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>24340.106098</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.761141</v>
+        <v>6.7611410000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>949.115000</v>
+        <v>949.11500000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.640000</v>
+        <v>-103.64</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>24350.920404</v>
       </c>
       <c r="V15" s="1">
-        <v>6.764145</v>
+        <v>6.7641450000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>955.351000</v>
+        <v>955.351</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.808500</v>
+        <v>-89.808499999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>24361.611142</v>
+        <v>24361.611142000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.767114</v>
+        <v>6.7671140000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.516000</v>
+        <v>962.51599999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.166100</v>
+        <v>-80.1661</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>24371.949751</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.769986</v>
+        <v>6.7699860000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.346000</v>
+        <v>967.346</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.701900</v>
+        <v>-79.701899999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>24382.484808</v>
+        <v>24382.484808000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.772912</v>
+        <v>6.7729119999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.218000</v>
+        <v>975.21799999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.326000</v>
+        <v>-87.325999999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>24393.275243</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.775910</v>
+        <v>6.7759099999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.337000</v>
+        <v>984.33699999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.108000</v>
+        <v>-102.108</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>24404.015613</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.778893</v>
+        <v>6.7788930000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.590000</v>
+        <v>995.59</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.476000</v>
+        <v>-123.476</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>24414.703407</v>
+        <v>24414.703407000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.781862</v>
+        <v>6.7818620000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.112000</v>
+        <v>-142.11199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>24425.390481</v>
+        <v>24425.390480999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.784831</v>
+        <v>6.7848309999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.090000</v>
+        <v>1050.0899999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.549000</v>
+        <v>-226.54900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>24436.212915</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.787837</v>
+        <v>6.7878369999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.080000</v>
+        <v>1129.08</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.159000</v>
+        <v>-362.15899999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>24446.921046</v>
+        <v>24446.921045999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.790811</v>
+        <v>6.7908109999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1259.880000</v>
+        <v>1259.8800000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-571.672000</v>
+        <v>-571.67200000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>24457.434775</v>
+        <v>24457.434775000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.793732</v>
+        <v>6.7937320000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>1406.600000</v>
+        <v>1406.6</v>
       </c>
       <c r="BV15" s="1">
-        <v>-795.751000</v>
+        <v>-795.75099999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>24468.180105</v>
+        <v>24468.180104999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.796717</v>
+        <v>6.7967170000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1568.220000</v>
+        <v>1568.22</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>24480.427288</v>
+        <v>24480.427287999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.800119</v>
+        <v>6.8001189999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1974.700000</v>
+        <v>1974.7</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1575.220000</v>
+        <v>-1575.22</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>24309.055546</v>
       </c>
       <c r="B16" s="1">
-        <v>6.752515</v>
+        <v>6.7525149999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>903.892000</v>
+        <v>903.89200000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.028000</v>
+        <v>-197.02799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>24319.493853</v>
       </c>
       <c r="G16" s="1">
-        <v>6.755415</v>
+        <v>6.7554150000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>920.929000</v>
+        <v>920.92899999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.880000</v>
+        <v>-166.88</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>24330.279358</v>
       </c>
       <c r="L16" s="1">
-        <v>6.758411</v>
+        <v>6.7584109999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>942.744000</v>
+        <v>942.74400000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.100000</v>
+        <v>-119.1</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>24340.772224</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.761326</v>
+        <v>6.7613260000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>949.159000</v>
+        <v>949.15899999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.686000</v>
+        <v>-103.68600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>24351.300827</v>
+        <v>24351.300826999999</v>
       </c>
       <c r="V16" s="1">
-        <v>6.764250</v>
+        <v>6.7642499999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>955.468000</v>
+        <v>955.46799999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.819000</v>
+        <v>-89.819000000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>24361.799127</v>
+        <v>24361.799126999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.767166</v>
+        <v>6.7671659999999996</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.489000</v>
+        <v>962.48900000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.230000</v>
+        <v>-80.23</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>24372.290007</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.770081</v>
+        <v>6.7700810000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.356000</v>
+        <v>967.35599999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.714900</v>
+        <v>-79.7149</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>24382.834954</v>
+        <v>24382.834954000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.773010</v>
+        <v>6.7730100000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.207000</v>
+        <v>975.20699999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.303600</v>
+        <v>-87.303600000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>24393.633885</v>
+        <v>24393.633884999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.776009</v>
+        <v>6.7760090000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.328000</v>
+        <v>984.32799999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.067000</v>
+        <v>-102.06699999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>24404.436749</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.779010</v>
+        <v>6.7790100000000004</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.605000</v>
+        <v>995.60500000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.460000</v>
+        <v>-123.46</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>24415.115582</v>
+        <v>24415.115581999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.781977</v>
+        <v>6.7819770000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.099000</v>
+        <v>-142.09899999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>24425.700736</v>
+        <v>24425.700735999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.784917</v>
+        <v>6.7849170000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.090000</v>
+        <v>1050.0899999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.545000</v>
+        <v>-226.54499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>24436.590370</v>
+        <v>24436.590370000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.787942</v>
+        <v>6.7879420000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.144000</v>
+        <v>-362.14400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>24447.315364</v>
+        <v>24447.315363999998</v>
       </c>
       <c r="BO16" s="1">
         <v>6.790921</v>
       </c>
       <c r="BP16" s="1">
-        <v>1259.880000</v>
+        <v>1259.8800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-571.704000</v>
+        <v>-571.70399999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>24457.849399</v>
+        <v>24457.849398999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.793847</v>
+        <v>6.7938470000000004</v>
       </c>
       <c r="BU16" s="1">
-        <v>1406.550000</v>
+        <v>1406.55</v>
       </c>
       <c r="BV16" s="1">
-        <v>-795.772000</v>
+        <v>-795.77200000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>24468.638376</v>
+        <v>24468.638375999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.796844</v>
+        <v>6.7968440000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1567.940000</v>
+        <v>1567.94</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1028.850000</v>
+        <v>-1028.8499999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>24480.943127</v>
+        <v>24480.943126999999</v>
       </c>
       <c r="CD16" s="1">
         <v>6.800262</v>
       </c>
       <c r="CE16" s="1">
-        <v>1974.380000</v>
+        <v>1974.38</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1574.570000</v>
+        <v>-1574.57</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>24309.705343</v>
+        <v>24309.705343000001</v>
       </c>
       <c r="B17" s="1">
-        <v>6.752696</v>
+        <v>6.7526960000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>903.683000</v>
+        <v>903.68299999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.947000</v>
+        <v>-196.947</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>24320.156509</v>
       </c>
       <c r="G17" s="1">
-        <v>6.755599</v>
+        <v>6.7555990000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>920.681000</v>
+        <v>920.68100000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.629000</v>
+        <v>-166.62899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>24330.661316</v>
+        <v>24330.661316000002</v>
       </c>
       <c r="L17" s="1">
-        <v>6.758517</v>
+        <v>6.7585170000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>942.734000</v>
+        <v>942.73400000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.216000</v>
+        <v>-119.21599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>24341.152672</v>
@@ -4381,103 +4797,103 @@
         <v>6.761431</v>
       </c>
       <c r="R17" s="1">
-        <v>949.115000</v>
+        <v>949.11500000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.728000</v>
+        <v>-103.72799999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>24351.645522</v>
+        <v>24351.645521999999</v>
       </c>
       <c r="V17" s="1">
-        <v>6.764346</v>
+        <v>6.7643459999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>955.476000</v>
+        <v>955.476</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.788900</v>
+        <v>-89.788899999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>24362.147844</v>
+        <v>24362.147843999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.767263</v>
+        <v>6.7672629999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.473000</v>
+        <v>962.47299999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.186600</v>
+        <v>-80.186599999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>24372.634231</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.770176</v>
+        <v>6.7701760000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.348000</v>
+        <v>967.34799999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.705900</v>
+        <v>-79.7059</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>24383.256552</v>
+        <v>24383.256551999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.773127</v>
+        <v>6.7731269999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.225000</v>
+        <v>975.22500000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.293300</v>
+        <v>-87.293300000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>24394.053504</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.776126</v>
+        <v>6.7761259999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.325000</v>
+        <v>984.32500000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>24404.742253</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.779095</v>
+        <v>6.7790949999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.618000</v>
+        <v>995.61800000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.475000</v>
+        <v>-123.47499999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>24415.426078</v>
@@ -4486,1178 +4902,1178 @@
         <v>6.782063</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.087000</v>
+        <v>-142.08699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>24426.061830</v>
+        <v>24426.061829999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.785017</v>
+        <v>6.7850169999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.100000</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.530000</v>
+        <v>-226.53</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>24436.966835</v>
+        <v>24436.966834999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.788046</v>
+        <v>6.7880459999999996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.150000</v>
+        <v>-362.15</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>24447.737964</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.791038</v>
+        <v>6.7910380000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1259.840000</v>
+        <v>1259.8399999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-571.663000</v>
+        <v>-571.66300000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>24458.265078</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.793963</v>
+        <v>6.7939629999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1406.520000</v>
+        <v>1406.52</v>
       </c>
       <c r="BV17" s="1">
-        <v>-795.664000</v>
+        <v>-795.66399999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>24469.083287</v>
+        <v>24469.083287000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.796968</v>
+        <v>6.7969679999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1567.930000</v>
+        <v>1567.93</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1029.060000</v>
+        <v>-1029.06</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>24481.498150</v>
+        <v>24481.498149999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.800416</v>
+        <v>6.8004160000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1973.980000</v>
+        <v>1973.98</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1573.880000</v>
+        <v>-1573.88</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>24310.081306</v>
       </c>
       <c r="B18" s="1">
-        <v>6.752800</v>
+        <v>6.7527999999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>903.858000</v>
+        <v>903.85799999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.945000</v>
+        <v>-196.94499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>24320.538459</v>
+        <v>24320.538458999999</v>
       </c>
       <c r="G18" s="1">
-        <v>6.755705</v>
+        <v>6.7557049999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>920.368000</v>
+        <v>920.36800000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.807000</v>
+        <v>-166.80699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>24331.006494</v>
+        <v>24331.006494000001</v>
       </c>
       <c r="L18" s="1">
-        <v>6.758613</v>
+        <v>6.7586130000000004</v>
       </c>
       <c r="M18" s="1">
-        <v>942.627000</v>
+        <v>942.62699999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.070000</v>
+        <v>-119.07</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>24341.499856</v>
+        <v>24341.499855999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.761528</v>
+        <v>6.7615280000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>949.128000</v>
+        <v>949.12800000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.708000</v>
+        <v>-103.708</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>24351.993217</v>
+        <v>24351.993216999999</v>
       </c>
       <c r="V18" s="1">
         <v>6.764443</v>
       </c>
       <c r="W18" s="1">
-        <v>955.448000</v>
+        <v>955.44799999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.862400</v>
+        <v>-89.862399999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>24362.560021</v>
+        <v>24362.560021000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.767378</v>
+        <v>6.7673779999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.348000</v>
+        <v>962.34799999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.175700</v>
+        <v>-80.175700000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>24373.065761</v>
+        <v>24373.065761000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.770296</v>
+        <v>6.7702960000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.399000</v>
+        <v>967.399</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.627500</v>
+        <v>-79.627499999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>24383.534808</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.773204</v>
+        <v>6.7732039999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.195000</v>
+        <v>975.19500000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.327100</v>
+        <v>-87.327100000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>24394.356026</v>
+        <v>24394.356026000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.776210</v>
+        <v>6.7762099999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.320000</v>
+        <v>984.32</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.098000</v>
+        <v>-102.098</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>24405.108313</v>
+        <v>24405.108313000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.779197</v>
+        <v>6.7791969999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.625000</v>
+        <v>995.625</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.468000</v>
+        <v>-123.468</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>24415.782207</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.782162</v>
+        <v>6.7821619999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.114000</v>
+        <v>-142.114</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>24426.423875</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.785118</v>
+        <v>6.7851179999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.100000</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.537000</v>
+        <v>-226.53700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>24437.714801</v>
+        <v>24437.714800999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.788254</v>
+        <v>6.7882540000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.149000</v>
+        <v>-362.149</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>24448.154099</v>
+        <v>24448.154098999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.791154</v>
+        <v>6.7911539999999997</v>
       </c>
       <c r="BP18" s="1">
-        <v>1259.930000</v>
+        <v>1259.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-571.669000</v>
+        <v>-571.66899999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>24458.676724</v>
+        <v>24458.676724000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.794077</v>
+        <v>6.7940769999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1406.460000</v>
+        <v>1406.46</v>
       </c>
       <c r="BV18" s="1">
-        <v>-795.726000</v>
+        <v>-795.726</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>24469.506374</v>
+        <v>24469.506374000001</v>
       </c>
       <c r="BY18" s="1">
         <v>6.797085</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1568.070000</v>
+        <v>1568.07</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1029.010000</v>
+        <v>-1029.01</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>24482.023947</v>
+        <v>24482.023947000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.800562</v>
+        <v>6.8005620000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.750000</v>
+        <v>1974.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1575.330000</v>
+        <v>-1575.33</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>24310.425032</v>
+        <v>24310.425031999999</v>
       </c>
       <c r="B19" s="1">
-        <v>6.752896</v>
+        <v>6.7528959999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>903.943000</v>
+        <v>903.94299999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.978000</v>
+        <v>-196.97800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>24320.881691</v>
+        <v>24320.881690999999</v>
       </c>
       <c r="G19" s="1">
-        <v>6.755800</v>
+        <v>6.7557999999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>920.675000</v>
+        <v>920.67499999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.714000</v>
+        <v>-166.714</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>24331.352701</v>
       </c>
       <c r="L19" s="1">
-        <v>6.758709</v>
+        <v>6.7587089999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>942.740000</v>
+        <v>942.74</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.085000</v>
+        <v>-119.08499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>24341.848047</v>
+        <v>24341.848046999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.761624</v>
+        <v>6.7616240000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>949.106000</v>
+        <v>949.10599999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.692000</v>
+        <v>-103.69199999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>24352.409857</v>
+        <v>24352.409856999999</v>
       </c>
       <c r="V19" s="1">
-        <v>6.764558</v>
+        <v>6.7645580000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>955.487000</v>
+        <v>955.48699999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.847100</v>
+        <v>-89.847099999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>24362.845685</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.767457</v>
+        <v>6.7674570000000003</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.472000</v>
+        <v>962.47199999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.244200</v>
+        <v>-80.244200000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>24373.345167</v>
+        <v>24373.345166999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.770374</v>
+        <v>6.7703740000000003</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.338000</v>
+        <v>967.33799999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.733400</v>
+        <v>-79.733400000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>24383.882537</v>
+        <v>24383.882537000001</v>
       </c>
       <c r="AK19" s="1">
         <v>6.773301</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.194000</v>
+        <v>975.19399999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.284500</v>
+        <v>-87.284499999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>24394.719135</v>
+        <v>24394.719134999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.776311</v>
+        <v>6.7763109999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.321000</v>
+        <v>984.32100000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.086000</v>
+        <v>-102.086</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>24405.471371</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.779298</v>
+        <v>6.7792979999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.608000</v>
+        <v>995.60799999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.487000</v>
+        <v>-123.48699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>24416.497964</v>
+        <v>24416.497963999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.782361</v>
+        <v>6.7823609999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.108000</v>
+        <v>-142.108</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>24427.144063</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.785318</v>
+        <v>6.7853180000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.080000</v>
+        <v>1050.08</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.556000</v>
+        <v>-226.55600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>24438.093248</v>
+        <v>24438.093248000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.788359</v>
+        <v>6.7883589999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.080000</v>
+        <v>1129.08</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.170000</v>
+        <v>-362.17</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>24448.555860</v>
+        <v>24448.55586</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.791266</v>
+        <v>6.7912660000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1259.880000</v>
+        <v>1259.8800000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-571.687000</v>
+        <v>-571.68700000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>24459.095348</v>
+        <v>24459.095347999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.794193</v>
+        <v>6.7941929999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1406.430000</v>
+        <v>1406.43</v>
       </c>
       <c r="BV19" s="1">
-        <v>-795.635000</v>
+        <v>-795.63499999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>24470.226565</v>
+        <v>24470.226565000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.797285</v>
+        <v>6.7972849999999996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1568.060000</v>
+        <v>1568.06</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1028.970000</v>
+        <v>-1028.97</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>24482.844821</v>
+        <v>24482.844820999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.800790</v>
+        <v>6.8007900000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1974.240000</v>
+        <v>1974.24</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1573.460000</v>
+        <v>-1573.46</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>24310.767413</v>
+        <v>24310.767413000001</v>
       </c>
       <c r="B20" s="1">
-        <v>6.752991</v>
+        <v>6.7529909999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>903.856000</v>
+        <v>903.85599999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.120000</v>
+        <v>-197.12</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>24321.225419</v>
+        <v>24321.225418999999</v>
       </c>
       <c r="G20" s="1">
-        <v>6.755896</v>
+        <v>6.7558959999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>920.890000</v>
+        <v>920.89</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.643000</v>
+        <v>-166.643</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>24331.772316</v>
+        <v>24331.772315999999</v>
       </c>
       <c r="L20" s="1">
         <v>6.758826</v>
       </c>
       <c r="M20" s="1">
-        <v>942.669000</v>
+        <v>942.66899999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.144000</v>
+        <v>-119.14400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>24342.264191</v>
+        <v>24342.264190999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.761740</v>
+        <v>6.7617399999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>949.090000</v>
+        <v>949.09</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.684000</v>
+        <v>-103.684</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>24352.696546</v>
+        <v>24352.696545999999</v>
       </c>
       <c r="V20" s="1">
-        <v>6.764638</v>
+        <v>6.7646379999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>955.458000</v>
+        <v>955.45799999999997</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.834900</v>
+        <v>-89.834900000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>24363.193379</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.767554</v>
+        <v>6.7675539999999996</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.462000</v>
+        <v>962.46199999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.170000</v>
+        <v>-80.17</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>24373.687767</v>
+        <v>24373.687766999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.770469</v>
+        <v>6.7704690000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.380000</v>
+        <v>967.38</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.699000</v>
+        <v>-79.698999999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>24384.235191</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.773399</v>
+        <v>6.7733990000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.213000</v>
+        <v>975.21299999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.295900</v>
+        <v>-87.295900000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>24395.079689</v>
+        <v>24395.079688999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.776411</v>
+        <v>6.7764110000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.321000</v>
+        <v>984.32100000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.095000</v>
+        <v>-102.095</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>24406.200490</v>
+        <v>24406.200489999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.779500</v>
+        <v>6.7794999999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.623000</v>
+        <v>995.62300000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.464000</v>
+        <v>-123.464</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>24416.859021</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.782461</v>
+        <v>6.7824609999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.106000</v>
+        <v>-142.10599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>24427.507630</v>
+        <v>24427.50763</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.785419</v>
+        <v>6.7854190000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.110000</v>
+        <v>1050.1099999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.534000</v>
+        <v>-226.53399999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>24438.467727</v>
+        <v>24438.467726999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.788463</v>
+        <v>6.7884630000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.161000</v>
+        <v>-362.161</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>24448.952163</v>
+        <v>24448.952163000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.791376</v>
+        <v>6.7913759999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1259.860000</v>
+        <v>1259.8599999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-571.625000</v>
+        <v>-571.625</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>24459.813588</v>
+        <v>24459.813588000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.794393</v>
+        <v>6.7943930000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>1406.440000</v>
+        <v>1406.44</v>
       </c>
       <c r="BV20" s="1">
-        <v>-795.682000</v>
+        <v>-795.68200000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>24470.353056</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.797320</v>
+        <v>6.79732</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1568.090000</v>
+        <v>1568.09</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1029.020000</v>
+        <v>-1029.02</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>24483.084356</v>
+        <v>24483.084355999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.800857</v>
+        <v>6.8008569999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>1974.650000</v>
+        <v>1974.65</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1573.130000</v>
+        <v>-1573.13</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>24311.187848</v>
+        <v>24311.187848000001</v>
       </c>
       <c r="B21" s="1">
-        <v>6.753108</v>
+        <v>6.7531080000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>903.713000</v>
+        <v>903.71299999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.790000</v>
+        <v>-196.79</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>24321.647514</v>
       </c>
       <c r="G21" s="1">
-        <v>6.756013</v>
+        <v>6.7560130000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>920.489000</v>
+        <v>920.48900000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.066000</v>
+        <v>-167.066</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>24332.064957</v>
+        <v>24332.064956999999</v>
       </c>
       <c r="L21" s="1">
-        <v>6.758907</v>
+        <v>6.7589069999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>942.659000</v>
+        <v>942.65899999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.216000</v>
+        <v>-119.21599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>24342.774109</v>
+        <v>24342.774109000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.761882</v>
+        <v>6.7618819999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>949.128000</v>
+        <v>949.12800000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.685000</v>
+        <v>-103.685</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>24353.039778</v>
+        <v>24353.039777999998</v>
       </c>
       <c r="V21" s="1">
-        <v>6.764733</v>
+        <v>6.7647329999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>955.440000</v>
+        <v>955.44</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.854000</v>
+        <v>-89.853999999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>24363.544050</v>
+        <v>24363.54405</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.767651</v>
+        <v>6.7676509999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.431000</v>
+        <v>962.43100000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.184900</v>
+        <v>-80.184899999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>24374.033978</v>
+        <v>24374.033977999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.770565</v>
+        <v>6.7705650000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.373000</v>
+        <v>967.37300000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.682600</v>
+        <v>-79.682599999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>24384.929062</v>
+        <v>24384.929061999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.773591</v>
+        <v>6.7735909999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.193000</v>
+        <v>975.19299999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.299400</v>
+        <v>-87.299400000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>24395.797928</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.776611</v>
+        <v>6.7766109999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.341000</v>
+        <v>984.34100000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.092000</v>
+        <v>-102.092</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>24406.591338</v>
+        <v>24406.591337999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.779609</v>
+        <v>6.7796089999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.626000</v>
+        <v>995.62599999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.473000</v>
+        <v>-123.473</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>24417.216635</v>
+        <v>24417.216635000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.782560</v>
+        <v>6.7825600000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.111000</v>
+        <v>-142.11099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>24427.867265</v>
+        <v>24427.867265000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.785519</v>
+        <v>6.7855189999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.120000</v>
+        <v>1050.1199999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.549000</v>
+        <v>-226.54900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>24439.146255</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.788652</v>
+        <v>6.7886519999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.122000</v>
+        <v>-362.12200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>24449.683798</v>
+        <v>24449.683797999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.791579</v>
+        <v>6.7915789999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1259.890000</v>
+        <v>1259.8900000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-571.644000</v>
+        <v>-571.64400000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>24459.938581</v>
+        <v>24459.938580999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.794427</v>
+        <v>6.7944269999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1406.390000</v>
+        <v>1406.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-795.577000</v>
+        <v>-795.577</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>24470.800933</v>
+        <v>24470.800932999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.797445</v>
+        <v>6.7974449999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1568.060000</v>
+        <v>1568.06</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1029.020000</v>
+        <v>-1029.02</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>24483.601877</v>
+        <v>24483.601877000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.801001</v>
+        <v>6.8010010000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>1974.150000</v>
+        <v>1974.15</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1574.820000</v>
+        <v>-1574.82</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>24311.468126</v>
       </c>
       <c r="B22" s="1">
-        <v>6.753186</v>
+        <v>6.7531860000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>903.685000</v>
+        <v>903.68499999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.885000</v>
+        <v>-196.88499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>24321.924746</v>
+        <v>24321.924746000001</v>
       </c>
       <c r="G22" s="1">
-        <v>6.756090</v>
+        <v>6.7560900000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>920.598000</v>
+        <v>920.59799999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.877000</v>
+        <v>-166.87700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>24332.408684</v>
+        <v>24332.408684000002</v>
       </c>
       <c r="L22" s="1">
-        <v>6.759002</v>
+        <v>6.7590019999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>942.622000</v>
+        <v>942.62199999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.950000</v>
+        <v>-118.95</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>24342.937758</v>
@@ -5666,725 +6082,725 @@
         <v>6.761927</v>
       </c>
       <c r="R22" s="1">
-        <v>949.154000</v>
+        <v>949.154</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.676000</v>
+        <v>-103.676</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>24353.384496</v>
+        <v>24353.384495999999</v>
       </c>
       <c r="V22" s="1">
-        <v>6.764829</v>
+        <v>6.7648289999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>955.430000</v>
+        <v>955.43</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.825100</v>
+        <v>-89.825100000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>24364.239937</v>
+        <v>24364.239936999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.767844</v>
+        <v>6.7678440000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.460000</v>
+        <v>962.46</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.197700</v>
+        <v>-80.197699999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>24374.717428</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.770755</v>
+        <v>6.7707550000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.316000</v>
+        <v>967.31600000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.718200</v>
+        <v>-79.718199999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>24385.278246</v>
+        <v>24385.278246000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.773688</v>
+        <v>6.7736879999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.227000</v>
+        <v>975.22699999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.301500</v>
+        <v>-87.301500000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>24396.158488</v>
+        <v>24396.158488000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.776711</v>
+        <v>6.7767109999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.324000</v>
+        <v>984.32399999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.093000</v>
+        <v>-102.093</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>24406.955434</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.779710</v>
+        <v>6.7797099999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.589000</v>
+        <v>995.58900000000006</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.487000</v>
+        <v>-123.48699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>24417.878299</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.782744</v>
+        <v>6.7827440000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.112000</v>
+        <v>-142.11199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>24428.539310</v>
+        <v>24428.53931</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.785705</v>
+        <v>6.7857050000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.080000</v>
+        <v>1050.08</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.552000</v>
+        <v>-226.55199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>24439.595662</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.788777</v>
+        <v>6.7887769999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.080000</v>
+        <v>1129.08</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.161000</v>
+        <v>-362.161</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>24449.797346</v>
+        <v>24449.797345999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.791610</v>
+        <v>6.7916100000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1259.880000</v>
+        <v>1259.8800000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-571.637000</v>
+        <v>-571.63699999999994</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>24460.352706</v>
+        <v>24460.352706000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.794542</v>
+        <v>6.7945419999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1406.330000</v>
+        <v>1406.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-795.566000</v>
+        <v>-795.56600000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>24471.234437</v>
+        <v>24471.234436999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.797565</v>
+        <v>6.7975649999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1567.960000</v>
+        <v>1567.96</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>24484.121523</v>
+        <v>24484.121523000002</v>
       </c>
       <c r="CD22" s="1">
         <v>6.801145</v>
       </c>
       <c r="CE22" s="1">
-        <v>1974.140000</v>
+        <v>1974.14</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1574.060000</v>
+        <v>-1574.06</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>24311.808343</v>
+        <v>24311.808343000001</v>
       </c>
       <c r="B23" s="1">
-        <v>6.753280</v>
+        <v>6.7532800000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>903.856000</v>
+        <v>903.85599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.999000</v>
+        <v>-196.999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>24322.267979</v>
       </c>
       <c r="G23" s="1">
-        <v>6.756186</v>
+        <v>6.7561859999999996</v>
       </c>
       <c r="H23" s="1">
-        <v>920.588000</v>
+        <v>920.58799999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.527000</v>
+        <v>-166.52699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>24332.753899</v>
+        <v>24332.753898999999</v>
       </c>
       <c r="L23" s="1">
-        <v>6.759098</v>
+        <v>6.7590979999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>942.624000</v>
+        <v>942.62400000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.020000</v>
+        <v>-119.02</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>24343.625742</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.762118</v>
+        <v>6.7621180000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>949.091000</v>
+        <v>949.09100000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.703000</v>
+        <v>-103.703</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>24354.069999</v>
+        <v>24354.069998999999</v>
       </c>
       <c r="V23" s="1">
-        <v>6.765019</v>
+        <v>6.7650189999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>955.334000</v>
+        <v>955.33399999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.819800</v>
+        <v>-89.819800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>24364.586641</v>
+        <v>24364.586641000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.767941</v>
+        <v>6.7679410000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.509000</v>
+        <v>962.50900000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.131500</v>
+        <v>-80.131500000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>24375.061651</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.770850</v>
+        <v>6.7708500000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.353000</v>
+        <v>967.35299999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.669400</v>
+        <v>-79.669399999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>24385.627429</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.773785</v>
+        <v>6.7737850000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.221000</v>
+        <v>975.221</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.296400</v>
+        <v>-87.296400000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>24396.517132</v>
+        <v>24396.517132000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.776810</v>
+        <v>6.7768100000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.306000</v>
+        <v>984.30600000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.073000</v>
+        <v>-102.07299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>24407.626540</v>
+        <v>24407.626540000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.779896</v>
+        <v>6.7798959999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.610000</v>
+        <v>995.61</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.452000</v>
+        <v>-123.452</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>24418.319738</v>
+        <v>24418.319737999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.782867</v>
+        <v>6.7828670000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.109000</v>
+        <v>-142.10900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>24428.975789</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.785827</v>
+        <v>6.7858270000000003</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.100000</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.549000</v>
+        <v>-226.54900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>24439.971601</v>
+        <v>24439.971601000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.788881</v>
+        <v>6.7888809999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.115000</v>
+        <v>-362.11500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>24450.194640</v>
+        <v>24450.194640000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.791721</v>
+        <v>6.7917209999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1259.870000</v>
+        <v>1259.8699999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-571.677000</v>
+        <v>-571.67700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>24460.778783</v>
+        <v>24460.778783000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.794661</v>
+        <v>6.7946609999999996</v>
       </c>
       <c r="BU23" s="1">
-        <v>1406.470000</v>
+        <v>1406.47</v>
       </c>
       <c r="BV23" s="1">
-        <v>-795.501000</v>
+        <v>-795.50099999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>24471.653557</v>
+        <v>24471.653557000001</v>
       </c>
       <c r="BY23" s="1">
         <v>6.797682</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1568.030000</v>
+        <v>1568.03</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1028.960000</v>
+        <v>-1028.96</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>24484.675063</v>
+        <v>24484.675062999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.801299</v>
+        <v>6.8012990000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1975.330000</v>
+        <v>1975.33</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1573.070000</v>
+        <v>-1573.07</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>24312.149591</v>
+        <v>24312.149591000001</v>
       </c>
       <c r="B24" s="1">
-        <v>6.753375</v>
+        <v>6.7533750000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>903.806000</v>
+        <v>903.80600000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.954000</v>
+        <v>-196.95400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>24322.616309</v>
+        <v>24322.616309000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.756282</v>
+        <v>6.7562819999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>920.532000</v>
+        <v>920.53200000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.829000</v>
+        <v>-166.82900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>24333.444337</v>
+        <v>24333.444337000001</v>
       </c>
       <c r="L24" s="1">
-        <v>6.759290</v>
+        <v>6.75929</v>
       </c>
       <c r="M24" s="1">
-        <v>942.708000</v>
+        <v>942.70799999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.244000</v>
+        <v>-119.244</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>24343.985841</v>
+        <v>24343.985841000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.762218</v>
+        <v>6.7622179999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>949.101000</v>
+        <v>949.101</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.721000</v>
+        <v>-103.721</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>24354.413359</v>
+        <v>24354.413358999998</v>
       </c>
       <c r="V24" s="1">
-        <v>6.765115</v>
+        <v>6.7651149999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>955.421000</v>
+        <v>955.42100000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.773200</v>
+        <v>-89.773200000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>24364.936816</v>
+        <v>24364.936816000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.768038</v>
+        <v>6.7680379999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.456000</v>
+        <v>962.45600000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.205700</v>
+        <v>-80.205699999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>24375.406869</v>
+        <v>24375.406868999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.770946</v>
+        <v>6.7709460000000004</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.323000</v>
+        <v>967.32299999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.679400</v>
+        <v>-79.679400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>24386.283140</v>
+        <v>24386.28314</v>
       </c>
       <c r="AK24" s="1">
         <v>6.773968</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.220000</v>
+        <v>975.22</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.286800</v>
+        <v>-87.286799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>24397.458998</v>
+        <v>24397.458997999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.777072</v>
+        <v>6.7770720000000004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.327000</v>
+        <v>984.327</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.079000</v>
+        <v>-102.07899999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>24408.082808</v>
+        <v>24408.082807999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.780023</v>
+        <v>6.7800229999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.618000</v>
+        <v>995.61800000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.471000</v>
+        <v>-123.471</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>24418.678347</v>
+        <v>24418.678347000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.782966</v>
+        <v>6.7829660000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.102000</v>
+        <v>-142.102</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>24429.336380</v>
+        <v>24429.336380000001</v>
       </c>
       <c r="BE24" s="1">
         <v>6.785927</v>
       </c>
       <c r="BF24" s="1">
-        <v>1050.110000</v>
+        <v>1050.1099999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.552000</v>
+        <v>-226.55199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>24440.346574</v>
+        <v>24440.346573999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.788985</v>
+        <v>6.7889850000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.080000</v>
+        <v>1129.08</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.164000</v>
+        <v>-362.16399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>24450.752672</v>
+        <v>24450.752671999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.791876</v>
+        <v>6.7918760000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1259.910000</v>
+        <v>1259.9100000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-571.684000</v>
+        <v>-571.68399999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>24461.191473</v>
+        <v>24461.191472999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.794775</v>
+        <v>6.7947749999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>1406.390000</v>
+        <v>1406.39</v>
       </c>
       <c r="BV24" s="1">
-        <v>-795.460000</v>
+        <v>-795.46</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>24472.077139</v>
+        <v>24472.077139000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.797799</v>
+        <v>6.7977990000000004</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1568.050000</v>
+        <v>1568.05</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>24485.205250</v>
+        <v>24485.205249999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.801446</v>
+        <v>6.8014460000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>1974.110000</v>
+        <v>1974.11</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1574.400000</v>
+        <v>-1574.4</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>24312.833078</v>
       </c>
@@ -6392,512 +6808,513 @@
         <v>6.753565</v>
       </c>
       <c r="C25" s="1">
-        <v>903.780000</v>
+        <v>903.78</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.030000</v>
+        <v>-197.03</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>24323.304121</v>
+        <v>24323.304121000001</v>
       </c>
       <c r="G25" s="1">
-        <v>6.756473</v>
+        <v>6.7564729999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>920.674000</v>
+        <v>920.67399999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.672000</v>
+        <v>-166.672</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>24333.788091</v>
+        <v>24333.788090999999</v>
       </c>
       <c r="L25" s="1">
-        <v>6.759386</v>
+        <v>6.7593860000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>942.594000</v>
+        <v>942.59400000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.144000</v>
+        <v>-119.14400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>24344.332012</v>
+        <v>24344.332011999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.762314</v>
+        <v>6.7623139999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>949.098000</v>
+        <v>949.09799999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.619000</v>
+        <v>-103.619</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>24354.758446</v>
       </c>
       <c r="V25" s="1">
-        <v>6.765211</v>
+        <v>6.7652109999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>955.445000</v>
+        <v>955.44500000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.847000</v>
+        <v>-89.846999999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>24365.584096</v>
+        <v>24365.584095999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.768218</v>
+        <v>6.7682180000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.475000</v>
+        <v>962.47500000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.209800</v>
+        <v>-80.209800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>24376.051702</v>
+        <v>24376.051702000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.771125</v>
+        <v>6.7711249999999996</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.336000</v>
+        <v>967.33600000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.664000</v>
+        <v>-79.664000000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>24386.672996</v>
+        <v>24386.672996000001</v>
       </c>
       <c r="AK25" s="1">
         <v>6.774076</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.224000</v>
+        <v>975.22400000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.302200</v>
+        <v>-87.302199999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>24397.623671</v>
+        <v>24397.623671000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.777118</v>
+        <v>6.7771179999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.303000</v>
+        <v>984.303</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.082000</v>
+        <v>-102.08199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>24408.447863</v>
+        <v>24408.447863000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.780124</v>
+        <v>6.7801239999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.617000</v>
+        <v>995.61699999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.496000</v>
+        <v>-123.496</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>24419.038970</v>
+        <v>24419.038970000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.783066</v>
+        <v>6.7830659999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.118000</v>
+        <v>-142.11799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>24429.696971</v>
+        <v>24429.696971000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.786027</v>
+        <v>6.7860269999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.090000</v>
+        <v>1050.0899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.554000</v>
+        <v>-226.554</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>24440.769660</v>
+        <v>24440.769660000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.789103</v>
+        <v>6.7891029999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.153000</v>
+        <v>-362.15300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>24451.013535</v>
+        <v>24451.013534999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.791948</v>
+        <v>6.7919479999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1259.890000</v>
+        <v>1259.8900000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-571.632000</v>
+        <v>-571.63199999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>24461.608609</v>
+        <v>24461.608608999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.794891</v>
+        <v>6.7948909999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1406.380000</v>
+        <v>1406.38</v>
       </c>
       <c r="BV25" s="1">
-        <v>-795.422000</v>
+        <v>-795.42200000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>24472.529988</v>
+        <v>24472.529987999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.797925</v>
+        <v>6.7979250000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1568.100000</v>
+        <v>1568.1</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1029.070000</v>
+        <v>-1029.07</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>24485.724563</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.801590</v>
+        <v>6.80159</v>
       </c>
       <c r="CE25" s="1">
-        <v>1974.030000</v>
+        <v>1974.03</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1573.680000</v>
+        <v>-1573.68</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>24313.175318</v>
+        <v>24313.175318000001</v>
       </c>
       <c r="B26" s="1">
-        <v>6.753660</v>
+        <v>6.75366</v>
       </c>
       <c r="C26" s="1">
-        <v>903.962000</v>
+        <v>903.96199999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.861000</v>
+        <v>-196.86099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>24323.646887</v>
+        <v>24323.646886999999</v>
       </c>
       <c r="G26" s="1">
-        <v>6.756569</v>
+        <v>6.7565689999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>920.772000</v>
+        <v>920.77200000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.537000</v>
+        <v>-166.53700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>24334.137738</v>
+        <v>24334.137738000001</v>
       </c>
       <c r="L26" s="1">
-        <v>6.759483</v>
+        <v>6.7594830000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>942.550000</v>
+        <v>942.55</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.301000</v>
+        <v>-119.301</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>24344.984747</v>
+        <v>24344.984746999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.762496</v>
+        <v>6.7624959999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>949.115000</v>
+        <v>949.11500000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.684000</v>
+        <v>-103.684</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>24355.409661</v>
+        <v>24355.409661000002</v>
       </c>
       <c r="V26" s="1">
-        <v>6.765392</v>
+        <v>6.7653920000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>955.376000</v>
+        <v>955.37599999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.808300</v>
+        <v>-89.808300000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>24365.981887</v>
+        <v>24365.981887000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.768328</v>
+        <v>6.7683280000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.501000</v>
+        <v>962.50099999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.198800</v>
+        <v>-80.198800000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>24376.435602</v>
+        <v>24376.435602000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.771232</v>
+        <v>6.7712320000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.365000</v>
+        <v>967.36500000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.692700</v>
+        <v>-79.692700000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>24387.021189</v>
+        <v>24387.021188999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.774173</v>
+        <v>6.7741730000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.227000</v>
+        <v>975.22699999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.319700</v>
+        <v>-87.319699999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>24397.985254</v>
+        <v>24397.985253999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.777218</v>
+        <v>6.7772180000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.313000</v>
+        <v>984.31299999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.098000</v>
+        <v>-102.098</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>24408.814438</v>
+        <v>24408.814438000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.780226</v>
+        <v>6.7802259999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.622000</v>
+        <v>995.62199999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.463000</v>
+        <v>-123.46299999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>24419.451609</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.783181</v>
+        <v>6.7831809999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.190000</v>
+        <v>1005.19</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.102000</v>
+        <v>-142.102</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>24430.105674</v>
+        <v>24430.105673999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.786140</v>
+        <v>6.7861399999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.100000</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.550000</v>
+        <v>-226.55</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>24441.123309</v>
+        <v>24441.123308999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.789201</v>
+        <v>6.7892010000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.147000</v>
+        <v>-362.14699999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>24451.408878</v>
+        <v>24451.408877999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.792058</v>
+        <v>6.7920579999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1259.880000</v>
+        <v>1259.8800000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-571.637000</v>
+        <v>-571.63699999999994</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>24462.023272</v>
+        <v>24462.023271999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.795006</v>
+        <v>6.7950059999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1406.440000</v>
+        <v>1406.44</v>
       </c>
       <c r="BV26" s="1">
-        <v>-795.479000</v>
+        <v>-795.47900000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>24472.946130</v>
+        <v>24472.94613</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.798041</v>
+        <v>6.7980409999999996</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1568.060000</v>
+        <v>1568.06</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>24486.293472</v>
+        <v>24486.293472000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.801748</v>
+        <v>6.8017479999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1975.720000</v>
+        <v>1975.72</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1573.560000</v>
+        <v>-1573.56</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>